--- a/outputs/tables/scores.xlsx
+++ b/outputs/tables/scores.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -82,18 +81,86 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -519,7 +586,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.867</v>
+        <v>0.88</v>
       </c>
       <c r="C4" t="n">
         <v>0.905</v>
@@ -531,7 +598,7 @@
         <v>0.605</v>
       </c>
       <c r="F4" t="n">
-        <v>0.929</v>
+        <v>0.786</v>
       </c>
       <c r="G4" t="n">
         <v>0.679</v>
@@ -543,7 +610,7 @@
         <v>0.929</v>
       </c>
       <c r="J4" t="n">
-        <v>0.995</v>
+        <v>0.996</v>
       </c>
       <c r="K4" t="n">
         <v>0.997</v>
@@ -555,7 +622,7 @@
         <v>0.979</v>
       </c>
       <c r="N4" t="n">
-        <v>0.897</v>
+        <v>0.83</v>
       </c>
       <c r="O4" t="n">
         <v>0.776</v>
@@ -574,7 +641,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.895</v>
+        <v>0.919</v>
       </c>
       <c r="C5" t="n">
         <v>0.868</v>
@@ -598,7 +665,7 @@
         <v>0.9409999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.995</v>
+        <v>0.996</v>
       </c>
       <c r="K5" t="n">
         <v>0.994</v>
@@ -610,7 +677,7 @@
         <v>0.996</v>
       </c>
       <c r="N5" t="n">
-        <v>0.944</v>
+        <v>0.958</v>
       </c>
       <c r="O5" t="n">
         <v>0.917</v>
@@ -641,7 +708,7 @@
         <v>0.931</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="G6" t="n">
         <v>0.9</v>
@@ -665,7 +732,7 @@
         <v>0.997</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0.966</v>
       </c>
       <c r="O6" t="n">
         <v>0.947</v>
@@ -684,7 +751,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.833</v>
+        <v>0.75</v>
       </c>
       <c r="C7" t="n">
         <v>0.833</v>
@@ -708,7 +775,7 @@
         <v>0.75</v>
       </c>
       <c r="J7" t="n">
-        <v>0.996</v>
+        <v>0.994</v>
       </c>
       <c r="K7" t="n">
         <v>0.996</v>
@@ -720,7 +787,7 @@
         <v>0.995</v>
       </c>
       <c r="N7" t="n">
-        <v>0.882</v>
+        <v>0.833</v>
       </c>
       <c r="O7" t="n">
         <v>0.882</v>
@@ -751,7 +818,7 @@
         <v>0.571</v>
       </c>
       <c r="F8" t="n">
-        <v>0.769</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="G8" t="n">
         <v>0.769</v>
@@ -775,7 +842,7 @@
         <v>0.989</v>
       </c>
       <c r="N8" t="n">
-        <v>0.87</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="O8" t="n">
         <v>0.769</v>
@@ -794,7 +861,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.947</v>
+        <v>0.923</v>
       </c>
       <c r="C9" t="n">
         <v>0.968</v>
@@ -818,7 +885,7 @@
         <v>0.838</v>
       </c>
       <c r="J9" t="n">
-        <v>0.997</v>
+        <v>0.996</v>
       </c>
       <c r="K9" t="n">
         <v>0.999</v>
@@ -830,7 +897,7 @@
         <v>0.996</v>
       </c>
       <c r="N9" t="n">
-        <v>0.96</v>
+        <v>0.947</v>
       </c>
       <c r="O9" t="n">
         <v>0.882</v>
@@ -844,11 +911,11 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="J1:M1"/>
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/tables/scores.xlsx
+++ b/outputs/tables/scores.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -82,18 +81,86 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -519,7 +586,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.867</v>
+        <v>0.844</v>
       </c>
       <c r="C4" t="n">
         <v>0.905</v>
@@ -531,7 +598,7 @@
         <v>0.605</v>
       </c>
       <c r="F4" t="n">
-        <v>0.929</v>
+        <v>0.964</v>
       </c>
       <c r="G4" t="n">
         <v>0.679</v>
@@ -543,7 +610,7 @@
         <v>0.929</v>
       </c>
       <c r="J4" t="n">
-        <v>0.995</v>
+        <v>0.994</v>
       </c>
       <c r="K4" t="n">
         <v>0.997</v>
@@ -555,7 +622,7 @@
         <v>0.979</v>
       </c>
       <c r="N4" t="n">
-        <v>0.897</v>
+        <v>0.9</v>
       </c>
       <c r="O4" t="n">
         <v>0.776</v>
@@ -574,7 +641,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.895</v>
+        <v>0.872</v>
       </c>
       <c r="C5" t="n">
         <v>0.868</v>
@@ -598,7 +665,7 @@
         <v>0.9409999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.995</v>
+        <v>0.994</v>
       </c>
       <c r="K5" t="n">
         <v>0.994</v>
@@ -610,7 +677,7 @@
         <v>0.996</v>
       </c>
       <c r="N5" t="n">
-        <v>0.944</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="O5" t="n">
         <v>0.917</v>
@@ -684,7 +751,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.833</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="C7" t="n">
         <v>0.833</v>
@@ -708,7 +775,7 @@
         <v>0.75</v>
       </c>
       <c r="J7" t="n">
-        <v>0.996</v>
+        <v>0.999</v>
       </c>
       <c r="K7" t="n">
         <v>0.996</v>
@@ -720,7 +787,7 @@
         <v>0.995</v>
       </c>
       <c r="N7" t="n">
-        <v>0.882</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="O7" t="n">
         <v>0.882</v>
@@ -751,7 +818,7 @@
         <v>0.571</v>
       </c>
       <c r="F8" t="n">
-        <v>0.769</v>
+        <v>0.462</v>
       </c>
       <c r="G8" t="n">
         <v>0.769</v>
@@ -775,7 +842,7 @@
         <v>0.989</v>
       </c>
       <c r="N8" t="n">
-        <v>0.87</v>
+        <v>0.632</v>
       </c>
       <c r="O8" t="n">
         <v>0.769</v>
@@ -794,7 +861,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.947</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0.968</v>
@@ -806,7 +873,7 @@
         <v>0.912</v>
       </c>
       <c r="F9" t="n">
-        <v>0.973</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0.8110000000000001</v>
@@ -818,7 +885,7 @@
         <v>0.838</v>
       </c>
       <c r="J9" t="n">
-        <v>0.997</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0.999</v>
@@ -830,7 +897,7 @@
         <v>0.996</v>
       </c>
       <c r="N9" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>0.882</v>
@@ -844,11 +911,11 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="J1:M1"/>
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/tables/scores.xlsx
+++ b/outputs/tables/scores.xlsx
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0.905</v>
@@ -598,7 +598,7 @@
         <v>0.605</v>
       </c>
       <c r="F4" t="n">
-        <v>0.786</v>
+        <v>0.964</v>
       </c>
       <c r="G4" t="n">
         <v>0.679</v>
@@ -610,7 +610,7 @@
         <v>0.929</v>
       </c>
       <c r="J4" t="n">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0.997</v>
@@ -622,7 +622,7 @@
         <v>0.979</v>
       </c>
       <c r="N4" t="n">
-        <v>0.83</v>
+        <v>0.982</v>
       </c>
       <c r="O4" t="n">
         <v>0.776</v>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.919</v>
+        <v>0.872</v>
       </c>
       <c r="C5" t="n">
         <v>0.868</v>
@@ -665,7 +665,7 @@
         <v>0.9409999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.996</v>
+        <v>0.994</v>
       </c>
       <c r="K5" t="n">
         <v>0.994</v>
@@ -677,7 +677,7 @@
         <v>0.996</v>
       </c>
       <c r="N5" t="n">
-        <v>0.958</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="O5" t="n">
         <v>0.917</v>
@@ -708,7 +708,7 @@
         <v>0.931</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9330000000000001</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0.9</v>
@@ -732,7 +732,7 @@
         <v>0.997</v>
       </c>
       <c r="N6" t="n">
-        <v>0.966</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>0.947</v>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.75</v>
+        <v>0.889</v>
       </c>
       <c r="C7" t="n">
         <v>0.833</v>
@@ -763,7 +763,7 @@
         <v>0.75</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9379999999999999</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0.9379999999999999</v>
@@ -775,7 +775,7 @@
         <v>0.75</v>
       </c>
       <c r="J7" t="n">
-        <v>0.994</v>
+        <v>0.998</v>
       </c>
       <c r="K7" t="n">
         <v>0.996</v>
@@ -787,7 +787,7 @@
         <v>0.995</v>
       </c>
       <c r="N7" t="n">
-        <v>0.833</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="O7" t="n">
         <v>0.882</v>
@@ -818,7 +818,7 @@
         <v>0.571</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.385</v>
       </c>
       <c r="G8" t="n">
         <v>0.769</v>
@@ -842,7 +842,7 @@
         <v>0.989</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="O8" t="n">
         <v>0.769</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.923</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0.968</v>
@@ -873,7 +873,7 @@
         <v>0.912</v>
       </c>
       <c r="F9" t="n">
-        <v>0.973</v>
+        <v>0.865</v>
       </c>
       <c r="G9" t="n">
         <v>0.8110000000000001</v>
@@ -885,7 +885,7 @@
         <v>0.838</v>
       </c>
       <c r="J9" t="n">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0.999</v>
@@ -897,7 +897,7 @@
         <v>0.996</v>
       </c>
       <c r="N9" t="n">
-        <v>0.947</v>
+        <v>0.928</v>
       </c>
       <c r="O9" t="n">
         <v>0.882</v>
